--- a/Angular/mock_interview/12_2019/1219_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2019/1219_1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/12_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101140F5-1DBA-3B43-BDAC-AB9FE788D457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A89507-7177-0E46-BDB8-1537B88950B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39880" yWindow="4660" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47560" yWindow="4420" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>School</t>
   </si>
@@ -211,12 +211,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>40/100</t>
-  </si>
-  <si>
-    <t>Yan Yang</t>
-  </si>
-  <si>
     <t>LiJing Cui</t>
   </si>
   <si>
@@ -236,6 +230,9 @@
   </si>
   <si>
     <t>/100</t>
+  </si>
+  <si>
+    <t>72/100</t>
   </si>
 </sst>
 </file>
@@ -648,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -960,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1013,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1196,7 +1193,7 @@
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>51</v>
@@ -1227,7 +1224,7 @@
       <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>1</v>
       </c>
       <c r="D17" s="10">
@@ -1236,12 +1233,12 @@
       <c r="E17" s="10">
         <v>3</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>2</v>
       </c>
       <c r="G17" s="3"/>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1254,28 +1251,28 @@
       <c r="D18" s="10">
         <v>5</v>
       </c>
-      <c r="E18" s="11">
-        <v>4</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" s="10">
+        <v>4</v>
+      </c>
+      <c r="F18" s="10">
         <v>4</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
-        <v>4</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="10">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11">
         <v>4</v>
       </c>
       <c r="D19" s="10">
         <v>6</v>
       </c>
-      <c r="E19" s="11">
-        <v>5</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10">
         <v>5</v>
       </c>
       <c r="G19" s="3"/>
@@ -1284,15 +1281,13 @@
       <c r="B20" s="10">
         <v>13</v>
       </c>
-      <c r="C20" s="10">
-        <v>5</v>
-      </c>
-      <c r="D20" s="11">
-        <v>7</v>
-      </c>
-      <c r="E20" s="10">
-        <v>6</v>
-      </c>
+      <c r="C20" s="11">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="11">
         <v>6</v>
       </c>
@@ -1302,7 +1297,7 @@
       <c r="B21" s="10">
         <v>15</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="11">
         <v>7</v>
       </c>
       <c r="D21" s="11">
@@ -1317,17 +1312,19 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="11">
+      <c r="B22" s="11">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10">
         <v>8</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>12</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>10</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1339,11 +1336,11 @@
       <c r="D23" s="10">
         <v>13</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>14</v>
       </c>
       <c r="F23" s="11">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1351,12 +1348,13 @@
       <c r="C24" s="11">
         <v>15</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>15</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>16</v>
       </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
@@ -1364,7 +1362,7 @@
       <c r="D25" s="11">
         <v>17</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>17</v>
       </c>
       <c r="F25" s="12"/>
@@ -1373,9 +1371,10 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>18</v>
       </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="12"/>
       <c r="G26" s="3"/>
     </row>
@@ -1394,7 +1393,7 @@
     </row>
     <row r="29" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>51</v>
@@ -1439,7 +1438,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1594,7 +1593,7 @@
     </row>
     <row r="42" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>51</v>
@@ -1639,7 +1638,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="K43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1770,7 +1769,7 @@
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>51</v>
@@ -1817,7 +1816,7 @@
       </c>
       <c r="G56" s="3"/>
       <c r="K56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">

--- a/Angular/mock_interview/12_2019/1219_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2019/1219_1st_round_mockinterview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/12_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A89507-7177-0E46-BDB8-1537B88950B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C1812-93AE-C544-8729-673AD94BEF5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47560" yWindow="4420" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>School</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>27/100</t>
-  </si>
-  <si>
-    <t>/100</t>
   </si>
   <si>
     <t>72/100</t>
@@ -957,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -996,164 +993,158 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="3"/>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>3</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>3</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>2</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="12">
-        <v>4</v>
-      </c>
-      <c r="C4" s="12">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12">
-        <v>4</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="B4" s="11">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10">
         <v>4</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>13</v>
       </c>
-      <c r="C5" s="12">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="11">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
         <v>6</v>
       </c>
-      <c r="E5" s="12">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
         <v>5</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>15</v>
       </c>
-      <c r="C6" s="12">
-        <v>7</v>
-      </c>
-      <c r="D6" s="12">
-        <v>7</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="10">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11">
         <v>6</v>
       </c>
-      <c r="F6" s="12">
-        <v>6</v>
-      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="12">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="11">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10">
         <v>8</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>9</v>
       </c>
-      <c r="E7" s="12">
-        <v>7</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="11">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>10</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>9</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>15</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>12</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>10</v>
       </c>
-      <c r="F9" s="12">
-        <v>16</v>
-      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>13</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>14</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="11">
+        <v>40</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>15</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>16</v>
       </c>
       <c r="F11" s="12"/>
@@ -1162,10 +1153,10 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>17</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>17</v>
       </c>
       <c r="F12" s="12"/>
@@ -1174,7 +1165,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>18</v>
       </c>
       <c r="E13" s="12"/>
@@ -1182,6 +1173,9 @@
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="11">
+        <v>20</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1238,7 +1232,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">

--- a/Angular/mock_interview/12_2019/1219_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2019/1219_1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/12_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1C1812-93AE-C544-8729-673AD94BEF5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC24220-C3E6-0C48-9044-5FA14BAA667F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47560" yWindow="4420" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="1120" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -211,12 +211,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>LiJing Cui</t>
-  </si>
-  <si>
-    <t>80/100</t>
-  </si>
-  <si>
     <t>Muzi Ti</t>
   </si>
   <si>
@@ -230,6 +224,12 @@
   </si>
   <si>
     <t>72/100</t>
+  </si>
+  <si>
+    <t>TingChing Chou</t>
+  </si>
+  <si>
+    <t>94/100</t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1006,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="3"/>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="29" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>51</v>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="K30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1463,7 +1463,7 @@
       <c r="D32" s="10">
         <v>6</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>5</v>
       </c>
       <c r="F32" s="10">
@@ -1499,7 +1499,7 @@
       <c r="D34" s="10">
         <v>9</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>7</v>
       </c>
       <c r="F34" s="10">
@@ -1508,14 +1508,16 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="12"/>
+      <c r="B35" s="11">
+        <v>23</v>
+      </c>
       <c r="C35" s="10">
         <v>8</v>
       </c>
       <c r="D35" s="10">
         <v>12</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>10</v>
       </c>
       <c r="F35" s="10">
@@ -1533,22 +1535,24 @@
       <c r="E36" s="10">
         <v>14</v>
       </c>
-      <c r="F36" s="11">
-        <v>16</v>
+      <c r="F36" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
-      <c r="C37" s="10">
+      <c r="C37" s="11">
         <v>15</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>15</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>16</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
@@ -1557,15 +1561,17 @@
         <v>17</v>
       </c>
       <c r="E38" s="10">
-        <v>17</v>
-      </c>
-      <c r="F38" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F38" s="10">
+        <v>40</v>
+      </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>18</v>
       </c>
       <c r="E39" s="13"/>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="42" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>51</v>
@@ -1632,7 +1638,7 @@
       </c>
       <c r="G43" s="3"/>
       <c r="K43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1763,7 +1769,7 @@
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>51</v>
@@ -1810,7 +1816,7 @@
       </c>
       <c r="G56" s="3"/>
       <c r="K56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">

--- a/Angular/mock_interview/12_2019/1219_1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2019/1219_1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/12_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC24220-C3E6-0C48-9044-5FA14BAA667F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA3CBC-C81D-5447-B972-DA4571A7DE5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="1120" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38600" yWindow="3800" windowWidth="22600" windowHeight="15340" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>School</t>
   </si>
@@ -211,18 +211,9 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Muzi Ti</t>
-  </si>
-  <si>
     <t>21/100</t>
   </si>
   <si>
-    <t>Yixing Zhang</t>
-  </si>
-  <si>
-    <t>27/100</t>
-  </si>
-  <si>
     <t>72/100</t>
   </si>
   <si>
@@ -230,6 +221,18 @@
   </si>
   <si>
     <t>94/100</t>
+  </si>
+  <si>
+    <t>86/100</t>
+  </si>
+  <si>
+    <t>47/100</t>
+  </si>
+  <si>
+    <t>LiTing Yang</t>
+  </si>
+  <si>
+    <t>77/100</t>
   </si>
 </sst>
 </file>
@@ -952,10 +955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76FEC86-CCF3-8540-B6B5-B82D58CC2B46}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1006,7 +1009,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="3"/>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1232,7 +1235,7 @@
       </c>
       <c r="G17" s="3"/>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1387,7 +1390,7 @@
     </row>
     <row r="29" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>51</v>
@@ -1432,7 +1435,7 @@
       </c>
       <c r="G30" s="3"/>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1593,7 +1596,7 @@
     </row>
     <row r="42" spans="1:11" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>51</v>
@@ -1624,28 +1627,28 @@
       <c r="B43" s="14">
         <v>1</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>1</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>1</v>
       </c>
       <c r="E43" s="14">
         <v>3</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="14">
         <v>2</v>
       </c>
       <c r="G43" s="3"/>
       <c r="K43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <v>3</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="14">
         <v>2</v>
       </c>
       <c r="D44" s="14">
@@ -1654,7 +1657,7 @@
       <c r="E44" s="15">
         <v>4</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="14">
         <v>4</v>
       </c>
       <c r="G44" s="3"/>
@@ -1666,13 +1669,13 @@
       <c r="C45" s="14">
         <v>4</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>6</v>
       </c>
-      <c r="E45" s="15">
-        <v>5</v>
-      </c>
-      <c r="F45" s="15">
+      <c r="E45" s="14">
+        <v>5</v>
+      </c>
+      <c r="F45" s="14">
         <v>5</v>
       </c>
       <c r="G45" s="3"/>
@@ -1681,13 +1684,13 @@
       <c r="B46" s="14">
         <v>13</v>
       </c>
-      <c r="C46" s="15">
-        <v>5</v>
-      </c>
-      <c r="D46" s="15">
-        <v>7</v>
-      </c>
-      <c r="E46" s="14">
+      <c r="C46" s="14">
+        <v>5</v>
+      </c>
+      <c r="D46" s="14">
+        <v>7</v>
+      </c>
+      <c r="E46">
         <v>6</v>
       </c>
       <c r="F46" s="15">
@@ -1696,34 +1699,37 @@
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="14">
+      <c r="B47">
         <v>15</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="14">
         <v>7</v>
       </c>
       <c r="D47" s="14">
         <v>9</v>
       </c>
-      <c r="E47" s="15">
-        <v>7</v>
-      </c>
-      <c r="F47" s="15">
+      <c r="E47" s="14">
+        <v>7</v>
+      </c>
+      <c r="F47" s="14">
         <v>7</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="15">
+      <c r="B48" s="15">
+        <v>23</v>
+      </c>
+      <c r="C48" s="14">
         <v>8</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <v>12</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>10</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="14">
         <v>8</v>
       </c>
     </row>
@@ -1731,33 +1737,39 @@
       <c r="C49" s="15">
         <v>9</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="14">
         <v>13</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <v>14</v>
       </c>
-      <c r="F49" s="15">
-        <v>16</v>
+      <c r="F49" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C50">
+      <c r="C50" s="15">
         <v>15</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="14">
         <v>15</v>
       </c>
       <c r="E50" s="15">
         <v>16</v>
       </c>
+      <c r="F50" s="14">
+        <v>10</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D51" s="15">
+      <c r="D51" s="14">
         <v>17</v>
       </c>
       <c r="E51">
         <v>17</v>
+      </c>
+      <c r="F51" s="14">
+        <v>40</v>
       </c>
       <c r="G51" s="3"/>
     </row>
@@ -1769,7 +1781,7 @@
     </row>
     <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>51</v>
@@ -1802,10 +1814,10 @@
       <c r="B56" s="15">
         <v>1</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="15">
         <v>1</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="14">
         <v>1</v>
       </c>
       <c r="E56">
@@ -1816,17 +1828,17 @@
       </c>
       <c r="G56" s="3"/>
       <c r="K56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" s="15">
         <v>3</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="14">
         <v>2</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" s="14">
@@ -1841,16 +1853,16 @@
       <c r="B58" s="15">
         <v>4</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="14">
         <v>4</v>
       </c>
       <c r="D58" s="14">
         <v>5</v>
       </c>
-      <c r="E58" s="15">
-        <v>4</v>
-      </c>
-      <c r="F58">
+      <c r="E58" s="14">
+        <v>4</v>
+      </c>
+      <c r="F58" s="15">
         <v>4</v>
       </c>
       <c r="G58" s="3"/>
@@ -1859,22 +1871,22 @@
       <c r="B59" s="15">
         <v>13</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="14">
         <v>5</v>
       </c>
       <c r="D59" s="15">
         <v>6</v>
       </c>
-      <c r="E59" s="15">
-        <v>5</v>
-      </c>
-      <c r="F59" s="15">
+      <c r="E59" s="14">
+        <v>5</v>
+      </c>
+      <c r="F59" s="14">
         <v>5</v>
       </c>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="15">
+      <c r="B60">
         <v>15</v>
       </c>
       <c r="C60" s="15">
@@ -1883,7 +1895,7 @@
       <c r="D60" s="15">
         <v>7</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60">
         <v>6</v>
       </c>
       <c r="F60" s="14">
@@ -1892,13 +1904,13 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>17</v>
       </c>
       <c r="C61" s="14">
         <v>8</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <v>9</v>
       </c>
       <c r="E61" s="15">
@@ -1909,7 +1921,10 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C62" s="15">
+      <c r="B62" s="15">
+        <v>23</v>
+      </c>
+      <c r="C62" s="14">
         <v>9</v>
       </c>
       <c r="D62">
@@ -1929,50 +1944,267 @@
       <c r="D63" s="15">
         <v>12</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="15">
         <v>10</v>
       </c>
       <c r="F63" s="15">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>13</v>
       </c>
       <c r="E64" s="15">
         <v>14</v>
       </c>
+      <c r="F64" s="15">
+        <v>10</v>
+      </c>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D65" s="14">
         <v>15</v>
       </c>
       <c r="E65" s="15">
         <v>16</v>
       </c>
+      <c r="F65" s="15">
+        <v>40</v>
+      </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D66" s="15">
         <v>17</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="15">
         <v>17</v>
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D67" s="15">
         <v>18</v>
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
+    </row>
+    <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="14">
+        <v>1</v>
+      </c>
+      <c r="C71" s="14">
+        <v>1</v>
+      </c>
+      <c r="D71" s="14">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="K71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="14">
+        <v>3</v>
+      </c>
+      <c r="C72" s="14">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" s="14">
+        <v>3</v>
+      </c>
+      <c r="F72" s="14">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="14">
+        <v>4</v>
+      </c>
+      <c r="C73" s="14">
+        <v>4</v>
+      </c>
+      <c r="D73" s="14">
+        <v>5</v>
+      </c>
+      <c r="E73" s="15">
+        <v>4</v>
+      </c>
+      <c r="F73" s="14">
+        <v>4</v>
+      </c>
+      <c r="G73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="14">
+        <v>13</v>
+      </c>
+      <c r="C74" s="14">
+        <v>5</v>
+      </c>
+      <c r="D74" s="14">
+        <v>6</v>
+      </c>
+      <c r="E74" s="14">
+        <v>5</v>
+      </c>
+      <c r="F74" s="14">
+        <v>5</v>
+      </c>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="14">
+        <v>15</v>
+      </c>
+      <c r="C75" s="15">
+        <v>7</v>
+      </c>
+      <c r="D75" s="15">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75" s="15">
+        <v>6</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>17</v>
+      </c>
+      <c r="C76" s="14">
+        <v>8</v>
+      </c>
+      <c r="D76" s="14">
+        <v>9</v>
+      </c>
+      <c r="E76" s="15">
+        <v>7</v>
+      </c>
+      <c r="F76" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="15">
+        <v>23</v>
+      </c>
+      <c r="C77" s="14">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+      <c r="F77" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C78" s="14">
+        <v>15</v>
+      </c>
+      <c r="D78" s="14">
+        <v>12</v>
+      </c>
+      <c r="E78" s="14">
+        <v>10</v>
+      </c>
+      <c r="F78" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D79" s="14">
+        <v>13</v>
+      </c>
+      <c r="E79" s="14">
+        <v>14</v>
+      </c>
+      <c r="F79" s="14">
+        <v>10</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D80" s="14">
+        <v>15</v>
+      </c>
+      <c r="E80" s="14">
+        <v>16</v>
+      </c>
+      <c r="F80" s="15">
+        <v>40</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D81" s="15">
+        <v>17</v>
+      </c>
+      <c r="E81" s="14">
+        <v>17</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D82" s="15">
+        <v>18</v>
+      </c>
+      <c r="G82" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
